--- a/__encodeapk/个税样板.xlsx
+++ b/__encodeapk/个税样板.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jj/Documents/个人/Project/code/Finance-master-local/__encodeapk/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangweixin/Documents/TS_ZFB/git/geshui/Finance-master-local/__encodeapk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4220283F-112C-E542-A1BD-F662C0A32BD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EAD6FA-90B3-2A4F-835F-0055B78382C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26300" yWindow="4680" windowWidth="18520" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5020" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="伟强" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="55">
   <si>
     <t>姓名</t>
   </si>
@@ -183,6 +191,10 @@
   </si>
   <si>
     <t>121100004007442000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -191,9 +203,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="180" formatCode="0_ "/>
-    <numFmt numFmtId="181" formatCode="0.00_ "/>
-    <numFmt numFmtId="182" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -267,7 +279,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -277,10 +289,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -289,25 +301,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -316,7 +325,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -602,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -715,7 +724,7 @@
       <c r="Q2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="17" t="s">
         <v>52</v>
       </c>
     </row>
@@ -742,19 +751,19 @@
       </c>
       <c r="E5"/>
       <c r="H5"/>
-      <c r="K5" s="15"/>
+      <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:18" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>53</v>
       </c>
       <c r="C6" s="3"/>
       <c r="E6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="K6" s="16"/>
+      <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:18" s="1" customFormat="1">
       <c r="A7" s="1" t="s">
@@ -763,7 +772,7 @@
       <c r="B7" s="6"/>
       <c r="E7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="17"/>
+      <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:18" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
@@ -796,11 +805,6 @@
       <c r="K9" s="7"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="18" spans="1:15">
-      <c r="G18" s="3">
-        <v>1.21100004007442E+17</v>
-      </c>
-    </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
         <v>34</v>
@@ -852,669 +856,612 @@
       <c r="A20" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="G23" s="3">
+        <v>1.21100004007442E+17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" t="s">
+        <v>42</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="9">
+    <row r="26" spans="1:15">
+      <c r="A26" s="9">
         <v>43854</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="8" t="str">
-        <f>TEXT(A21,"yyyy-mm-dd")</f>
+      <c r="B26" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="8" t="str">
+        <f>TEXT(A26,"yyyy-mm-dd")</f>
         <v>2020-01-24</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E26" s="4">
         <v>17543</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F26" s="4">
         <v>654.85</v>
       </c>
-      <c r="G21" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" t="s">
-        <v>50</v>
-      </c>
-      <c r="J21" t="str">
-        <f>TEXT(A21,"yyyy-mm")</f>
+      <c r="G26" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" t="str">
+        <f>TEXT(A26,"yyyy-mm")</f>
         <v>2020-01</v>
       </c>
-      <c r="K21" s="4">
-        <v>0</v>
-      </c>
-      <c r="L21" s="4">
-        <v>5000</v>
-      </c>
-      <c r="M21" s="4">
-        <v>4003</v>
-      </c>
-      <c r="N21" s="4">
-        <v>0</v>
-      </c>
-      <c r="O21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="9">
+      <c r="K26" s="4">
+        <v>0</v>
+      </c>
+      <c r="L26" s="4">
+        <v>5000</v>
+      </c>
+      <c r="M26" s="4">
+        <v>4003</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="9">
         <v>43881</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B27" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="8" t="str">
-        <f>TEXT(A22,"yyyy-mm-dd")</f>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="8" t="str">
+        <f>TEXT(A27,"yyyy-mm-dd")</f>
         <v>2020-02-20</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E27" s="4">
         <v>25940</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F27" s="4">
         <v>1650.2</v>
       </c>
-      <c r="G22" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I22" t="s">
-        <v>50</v>
-      </c>
-      <c r="J22" t="str">
-        <f>TEXT(A22,"yyyy-mm")</f>
+      <c r="G27" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" t="str">
+        <f>TEXT(A27,"yyyy-mm")</f>
         <v>2020-02</v>
       </c>
-      <c r="K22" s="4">
-        <v>0</v>
-      </c>
-      <c r="L22" s="4">
-        <v>5000</v>
-      </c>
-      <c r="M22" s="4">
-        <v>4003</v>
-      </c>
-      <c r="N22" s="4">
-        <v>0</v>
-      </c>
-      <c r="O22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="9">
+      <c r="K27" s="4">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
+        <v>5000</v>
+      </c>
+      <c r="M27" s="4">
+        <v>4003</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="9">
         <v>43885</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="8" t="str">
-        <f t="shared" ref="D23:D30" si="0">TEXT(A23,"yyyy-mm-dd")</f>
+      <c r="B28" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="8" t="str">
+        <f t="shared" ref="D28:D35" si="0">TEXT(A28,"yyyy-mm-dd")</f>
         <v>2020-02-24</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E28" s="4">
         <v>18039</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F28" s="4">
         <v>693.43</v>
       </c>
-      <c r="G23" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" t="s">
-        <v>49</v>
-      </c>
-      <c r="I23" t="s">
-        <v>50</v>
-      </c>
-      <c r="J23" t="str">
-        <f t="shared" ref="J23:J30" si="1">TEXT(A23,"yyyy-mm")</f>
+      <c r="G28" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" ref="J28:J35" si="1">TEXT(A28,"yyyy-mm")</f>
         <v>2020-02</v>
       </c>
-      <c r="K23" s="4">
-        <v>0</v>
-      </c>
-      <c r="L23" s="4">
-        <v>5000</v>
-      </c>
-      <c r="M23" s="4">
-        <v>4003</v>
-      </c>
-      <c r="N23" s="4">
-        <v>0</v>
-      </c>
-      <c r="O23" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="9">
+      <c r="K28" s="4">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4">
+        <v>5000</v>
+      </c>
+      <c r="M28" s="4">
+        <v>4003</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="9">
         <v>43914</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="8" t="str">
+      <c r="B29" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="8" t="str">
         <f t="shared" si="0"/>
         <v>2020-03-24</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E29" s="4">
         <v>17622</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F29" s="4">
         <v>660.99</v>
       </c>
-      <c r="G24" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H24" t="s">
-        <v>49</v>
-      </c>
-      <c r="I24" t="s">
-        <v>50</v>
-      </c>
-      <c r="J24" t="str">
+      <c r="G29" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29" t="str">
         <f t="shared" si="1"/>
         <v>2020-03</v>
       </c>
-      <c r="K24" s="4">
-        <v>0</v>
-      </c>
-      <c r="L24" s="4">
-        <v>5000</v>
-      </c>
-      <c r="M24" s="4">
-        <v>4003</v>
-      </c>
-      <c r="N24" s="4">
-        <v>0</v>
-      </c>
-      <c r="O24" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="9">
+      <c r="K29" s="4">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4">
+        <v>5000</v>
+      </c>
+      <c r="M29" s="4">
+        <v>4003</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="9">
         <v>43945</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="8" t="str">
+      <c r="B30" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="8" t="str">
         <f t="shared" si="0"/>
         <v>2020-04-24</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E30" s="4">
         <v>17858</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F30" s="4">
         <v>679.35</v>
       </c>
-      <c r="G25" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H25" t="s">
-        <v>49</v>
-      </c>
-      <c r="I25" t="s">
-        <v>50</v>
-      </c>
-      <c r="J25" t="str">
+      <c r="G30" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" t="s">
+        <v>50</v>
+      </c>
+      <c r="J30" t="str">
         <f t="shared" si="1"/>
         <v>2020-04</v>
       </c>
-      <c r="K25" s="4">
-        <v>0</v>
-      </c>
-      <c r="L25" s="4">
-        <v>5000</v>
-      </c>
-      <c r="M25" s="4">
-        <v>4003</v>
-      </c>
-      <c r="N25" s="4">
-        <v>0</v>
-      </c>
-      <c r="O25" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="9">
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4">
+        <v>5000</v>
+      </c>
+      <c r="M30" s="4">
+        <v>4003</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="9">
         <v>43975</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="8" t="str">
+      <c r="B31" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="8" t="str">
         <f t="shared" si="0"/>
         <v>2020-05-24</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E31" s="4">
         <v>17438</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F31" s="4">
         <v>646.67999999999995</v>
       </c>
-      <c r="G26" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H26" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" t="s">
-        <v>50</v>
-      </c>
-      <c r="J26" t="str">
+      <c r="G31" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" t="s">
+        <v>50</v>
+      </c>
+      <c r="J31" t="str">
         <f t="shared" si="1"/>
         <v>2020-05</v>
       </c>
-      <c r="K26" s="4">
-        <v>0</v>
-      </c>
-      <c r="L26" s="4">
-        <v>5000</v>
-      </c>
-      <c r="M26" s="4">
-        <v>4003</v>
-      </c>
-      <c r="N26" s="4">
-        <v>0</v>
-      </c>
-      <c r="O26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="9">
+      <c r="K31" s="4">
+        <v>0</v>
+      </c>
+      <c r="L31" s="4">
+        <v>5000</v>
+      </c>
+      <c r="M31" s="4">
+        <v>4003</v>
+      </c>
+      <c r="N31" s="4">
+        <v>0</v>
+      </c>
+      <c r="O31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="9">
         <v>44006</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="8" t="str">
+      <c r="B32" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="8" t="str">
         <f t="shared" si="0"/>
         <v>2020-06-24</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E32" s="4">
         <v>17573</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F32" s="4">
         <v>657.18</v>
       </c>
-      <c r="G27" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" t="s">
-        <v>49</v>
-      </c>
-      <c r="I27" t="s">
-        <v>50</v>
-      </c>
-      <c r="J27" t="str">
+      <c r="G32" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" t="s">
+        <v>50</v>
+      </c>
+      <c r="J32" t="str">
         <f t="shared" si="1"/>
         <v>2020-06</v>
       </c>
-      <c r="K27" s="4">
-        <v>0</v>
-      </c>
-      <c r="L27" s="4">
-        <v>5000</v>
-      </c>
-      <c r="M27" s="4">
-        <v>4003</v>
-      </c>
-      <c r="N27" s="4">
-        <v>0</v>
-      </c>
-      <c r="O27" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="9">
+      <c r="K32" s="4">
+        <v>0</v>
+      </c>
+      <c r="L32" s="4">
+        <v>5000</v>
+      </c>
+      <c r="M32" s="4">
+        <v>4003</v>
+      </c>
+      <c r="N32" s="4">
+        <v>0</v>
+      </c>
+      <c r="O32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="9">
         <v>44036</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="8" t="str">
+      <c r="B33" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="8" t="str">
         <f t="shared" si="0"/>
         <v>2020-07-24</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E33" s="4">
         <v>18414</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F33" s="4">
         <v>722.61</v>
       </c>
-      <c r="G28" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H28" t="s">
-        <v>49</v>
-      </c>
-      <c r="I28" t="s">
-        <v>50</v>
-      </c>
-      <c r="J28" t="str">
+      <c r="G33" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" t="s">
+        <v>49</v>
+      </c>
+      <c r="I33" t="s">
+        <v>50</v>
+      </c>
+      <c r="J33" t="str">
         <f t="shared" si="1"/>
         <v>2020-07</v>
       </c>
-      <c r="K28" s="4">
-        <v>0</v>
-      </c>
-      <c r="L28" s="4">
-        <v>5000</v>
-      </c>
-      <c r="M28" s="4">
-        <v>4003</v>
-      </c>
-      <c r="N28" s="4">
-        <v>0</v>
-      </c>
-      <c r="O28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="9">
+      <c r="K33" s="4">
+        <v>0</v>
+      </c>
+      <c r="L33" s="4">
+        <v>5000</v>
+      </c>
+      <c r="M33" s="4">
+        <v>4003</v>
+      </c>
+      <c r="N33" s="4">
+        <v>0</v>
+      </c>
+      <c r="O33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="9">
         <v>44067</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="8" t="str">
+      <c r="B34" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="8" t="str">
         <f t="shared" si="0"/>
         <v>2020-08-24</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E34" s="4">
         <v>17482</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F34" s="4">
         <v>650.1</v>
       </c>
-      <c r="G29" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H29" t="s">
-        <v>49</v>
-      </c>
-      <c r="I29" t="s">
-        <v>50</v>
-      </c>
-      <c r="J29" t="str">
+      <c r="G34" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34" t="s">
+        <v>50</v>
+      </c>
+      <c r="J34" t="str">
         <f t="shared" si="1"/>
         <v>2020-08</v>
       </c>
-      <c r="K29" s="4">
-        <v>0</v>
-      </c>
-      <c r="L29" s="4">
-        <v>5000</v>
-      </c>
-      <c r="M29" s="4">
-        <v>4003</v>
-      </c>
-      <c r="N29" s="4">
-        <v>0</v>
-      </c>
-      <c r="O29" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="9">
+      <c r="K34" s="4">
+        <v>0</v>
+      </c>
+      <c r="L34" s="4">
+        <v>5000</v>
+      </c>
+      <c r="M34" s="4">
+        <v>4003</v>
+      </c>
+      <c r="N34" s="4">
+        <v>0</v>
+      </c>
+      <c r="O34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="9">
         <v>44098</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="8" t="str">
+      <c r="B35" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="8" t="str">
         <f t="shared" si="0"/>
         <v>2020-09-24</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E35" s="4">
         <v>17476</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F35" s="4">
         <v>649.63</v>
       </c>
-      <c r="G30" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H30" t="s">
-        <v>49</v>
-      </c>
-      <c r="I30" t="s">
-        <v>50</v>
-      </c>
-      <c r="J30" t="str">
+      <c r="G35" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35" t="s">
+        <v>49</v>
+      </c>
+      <c r="I35" t="s">
+        <v>50</v>
+      </c>
+      <c r="J35" t="str">
         <f t="shared" si="1"/>
         <v>2020-09</v>
       </c>
-      <c r="K30" s="4">
-        <v>0</v>
-      </c>
-      <c r="L30" s="4">
-        <v>5000</v>
-      </c>
-      <c r="M30" s="4">
-        <v>4003</v>
-      </c>
-      <c r="N30" s="4">
-        <v>0</v>
-      </c>
-      <c r="O30" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="9">
+      <c r="K35" s="4">
+        <v>0</v>
+      </c>
+      <c r="L35" s="4">
+        <v>5000</v>
+      </c>
+      <c r="M35" s="4">
+        <v>4003</v>
+      </c>
+      <c r="N35" s="4">
+        <v>0</v>
+      </c>
+      <c r="O35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="9">
         <v>44128</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="8" t="str">
-        <f>TEXT(A31,"yyyy-mm-dd")</f>
+      <c r="B36" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="8" t="str">
+        <f>TEXT(A36,"yyyy-mm-dd")</f>
         <v>2020-10-24</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E36" s="4">
         <v>17380</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F36" s="4">
         <v>642.16</v>
       </c>
-      <c r="G31" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H31" t="s">
-        <v>49</v>
-      </c>
-      <c r="I31" t="s">
-        <v>50</v>
-      </c>
-      <c r="J31" t="str">
-        <f>TEXT(A31,"yyyy-mm")</f>
+      <c r="G36" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" t="s">
+        <v>49</v>
+      </c>
+      <c r="I36" t="s">
+        <v>50</v>
+      </c>
+      <c r="J36" t="str">
+        <f>TEXT(A36,"yyyy-mm")</f>
         <v>2020-10</v>
       </c>
-      <c r="K31" s="4">
-        <v>0</v>
-      </c>
-      <c r="L31" s="4">
-        <v>5000</v>
-      </c>
-      <c r="M31" s="4">
-        <v>4003</v>
-      </c>
-      <c r="N31" s="4">
-        <v>0</v>
-      </c>
-      <c r="O31" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="9">
-        <v>44159</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="8" t="str">
-        <f>TEXT(A32,"yyyy-mm-dd")</f>
-        <v>2020-11-24</v>
-      </c>
-      <c r="E32" s="4">
-        <v>17872</v>
-      </c>
-      <c r="F32">
-        <v>680.44</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H32" t="s">
-        <v>49</v>
-      </c>
-      <c r="I32" t="s">
-        <v>50</v>
-      </c>
-      <c r="J32" t="str">
-        <f>TEXT(A32,"yyyy-mm")</f>
-        <v>2020-11</v>
-      </c>
-      <c r="K32" s="4">
-        <v>0</v>
-      </c>
-      <c r="L32" s="4">
-        <v>5000</v>
-      </c>
-      <c r="M32" s="4">
-        <v>4003</v>
-      </c>
-      <c r="N32" s="4">
-        <v>0</v>
-      </c>
-      <c r="O32" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="9">
-        <v>44189</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="8" t="str">
-        <f>TEXT(A33,"yyyy-mm-dd")</f>
-        <v>2020-12-24</v>
-      </c>
-      <c r="E33" s="4">
-        <v>17927</v>
-      </c>
-      <c r="F33">
-        <v>684.72</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H33" t="s">
-        <v>49</v>
-      </c>
-      <c r="I33" t="s">
-        <v>50</v>
-      </c>
-      <c r="J33" t="str">
-        <f>TEXT(A33,"yyyy-mm")</f>
-        <v>2020-12</v>
-      </c>
-      <c r="K33" s="4">
-        <v>0</v>
-      </c>
-      <c r="L33" s="4">
-        <v>5000</v>
-      </c>
-      <c r="M33" s="4">
-        <v>4003</v>
-      </c>
-      <c r="N33" s="4">
-        <v>0</v>
-      </c>
-      <c r="O33" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="11"/>
-      <c r="K34"/>
-      <c r="O34" s="4"/>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="K35"/>
-      <c r="O35" s="4"/>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36">
-        <v>2019</v>
-      </c>
-      <c r="K36"/>
-      <c r="O36" s="4"/>
+      <c r="K36" s="4">
+        <v>0</v>
+      </c>
+      <c r="L36" s="4">
+        <v>5000</v>
+      </c>
+      <c r="M36" s="4">
+        <v>4003</v>
+      </c>
+      <c r="N36" s="4">
+        <v>0</v>
+      </c>
+      <c r="O36" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="9">
-        <v>43489</v>
+        <v>44159</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>48</v>
@@ -1524,15 +1471,15 @@
       </c>
       <c r="D37" s="8" t="str">
         <f>TEXT(A37,"yyyy-mm-dd")</f>
-        <v>2019-01-24</v>
+        <v>2020-11-24</v>
       </c>
       <c r="E37" s="4">
-        <v>17440</v>
-      </c>
-      <c r="F37" s="4">
-        <v>646.83000000000004</v>
-      </c>
-      <c r="G37" s="18" t="s">
+        <v>17872</v>
+      </c>
+      <c r="F37">
+        <v>680.44</v>
+      </c>
+      <c r="G37" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H37" t="s">
@@ -1543,7 +1490,7 @@
       </c>
       <c r="J37" t="str">
         <f>TEXT(A37,"yyyy-mm")</f>
-        <v>2019-01</v>
+        <v>2020-11</v>
       </c>
       <c r="K37" s="4">
         <v>0</v>
@@ -1563,25 +1510,25 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="9">
-        <v>43516</v>
+        <v>44189</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
         <v>29</v>
       </c>
       <c r="D38" s="8" t="str">
         <f>TEXT(A38,"yyyy-mm-dd")</f>
-        <v>2019-02-20</v>
+        <v>2020-12-24</v>
       </c>
       <c r="E38" s="4">
-        <v>23928</v>
-      </c>
-      <c r="F38" s="4">
-        <v>1313.2</v>
-      </c>
-      <c r="G38" s="18" t="s">
+        <v>17927</v>
+      </c>
+      <c r="F38">
+        <v>684.72</v>
+      </c>
+      <c r="G38" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H38" t="s">
@@ -1592,608 +1539,690 @@
       </c>
       <c r="J38" t="str">
         <f>TEXT(A38,"yyyy-mm")</f>
+        <v>2020-12</v>
+      </c>
+      <c r="K38" s="4">
+        <v>0</v>
+      </c>
+      <c r="L38" s="4">
+        <v>5000</v>
+      </c>
+      <c r="M38" s="4">
+        <v>4003</v>
+      </c>
+      <c r="N38" s="4">
+        <v>0</v>
+      </c>
+      <c r="O38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="11"/>
+      <c r="K39"/>
+      <c r="O39" s="4"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="K40"/>
+      <c r="O40" s="4"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41">
+        <v>2019</v>
+      </c>
+      <c r="K41"/>
+      <c r="O41" s="4"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="9">
+        <v>43489</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="8" t="str">
+        <f>TEXT(A42,"yyyy-mm-dd")</f>
+        <v>2019-01-24</v>
+      </c>
+      <c r="E42" s="4">
+        <v>17440</v>
+      </c>
+      <c r="F42" s="4">
+        <v>646.83000000000004</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42" t="s">
+        <v>49</v>
+      </c>
+      <c r="I42" t="s">
+        <v>50</v>
+      </c>
+      <c r="J42" t="str">
+        <f>TEXT(A42,"yyyy-mm")</f>
+        <v>2019-01</v>
+      </c>
+      <c r="K42" s="4">
+        <v>0</v>
+      </c>
+      <c r="L42" s="4">
+        <v>5000</v>
+      </c>
+      <c r="M42" s="4">
+        <v>4003</v>
+      </c>
+      <c r="N42" s="4">
+        <v>0</v>
+      </c>
+      <c r="O42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="9">
+        <v>43516</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="8" t="str">
+        <f>TEXT(A43,"yyyy-mm-dd")</f>
+        <v>2019-02-20</v>
+      </c>
+      <c r="E43" s="4">
+        <v>23928</v>
+      </c>
+      <c r="F43" s="4">
+        <v>1313.2</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H43" t="s">
+        <v>49</v>
+      </c>
+      <c r="I43" t="s">
+        <v>50</v>
+      </c>
+      <c r="J43" t="str">
+        <f>TEXT(A43,"yyyy-mm")</f>
         <v>2019-02</v>
       </c>
-      <c r="K38" s="4">
-        <v>0</v>
-      </c>
-      <c r="L38" s="4">
-        <v>5000</v>
-      </c>
-      <c r="M38" s="4">
-        <v>4003</v>
-      </c>
-      <c r="N38" s="4">
-        <v>0</v>
-      </c>
-      <c r="O38" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="9">
+      <c r="K43" s="4">
+        <v>0</v>
+      </c>
+      <c r="L43" s="4">
+        <v>5000</v>
+      </c>
+      <c r="M43" s="4">
+        <v>4003</v>
+      </c>
+      <c r="N43" s="4">
+        <v>0</v>
+      </c>
+      <c r="O43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="9">
         <v>43520</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="8" t="str">
-        <f t="shared" ref="D39:D49" si="2">TEXT(A39,"yyyy-mm-dd")</f>
+      <c r="B44" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="8" t="str">
+        <f t="shared" ref="D44:D54" si="2">TEXT(A44,"yyyy-mm-dd")</f>
         <v>2019-02-24</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E44" s="4">
         <v>17480</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F44" s="4">
         <v>649.94000000000005</v>
       </c>
-      <c r="G39" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H39" t="s">
-        <v>49</v>
-      </c>
-      <c r="I39" t="s">
-        <v>50</v>
-      </c>
-      <c r="J39" t="str">
-        <f t="shared" ref="J39:J49" si="3">TEXT(A39,"yyyy-mm")</f>
+      <c r="G44" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H44" t="s">
+        <v>49</v>
+      </c>
+      <c r="I44" t="s">
+        <v>50</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" ref="J44:J54" si="3">TEXT(A44,"yyyy-mm")</f>
         <v>2019-02</v>
       </c>
-      <c r="K39" s="4">
-        <v>0</v>
-      </c>
-      <c r="L39" s="4">
-        <v>5000</v>
-      </c>
-      <c r="M39" s="4">
-        <v>4003</v>
-      </c>
-      <c r="N39" s="4">
-        <v>0</v>
-      </c>
-      <c r="O39" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="9">
+      <c r="K44" s="4">
+        <v>0</v>
+      </c>
+      <c r="L44" s="4">
+        <v>5000</v>
+      </c>
+      <c r="M44" s="4">
+        <v>4003</v>
+      </c>
+      <c r="N44" s="4">
+        <v>0</v>
+      </c>
+      <c r="O44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="9">
         <v>43548</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="8" t="str">
+      <c r="B45" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="8" t="str">
         <f t="shared" si="2"/>
         <v>2019-03-24</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E45" s="4">
         <v>17328</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F45" s="4">
         <v>638.12</v>
       </c>
-      <c r="G40" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H40" t="s">
-        <v>49</v>
-      </c>
-      <c r="I40" t="s">
-        <v>50</v>
-      </c>
-      <c r="J40" t="str">
+      <c r="G45" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H45" t="s">
+        <v>49</v>
+      </c>
+      <c r="I45" t="s">
+        <v>50</v>
+      </c>
+      <c r="J45" t="str">
         <f t="shared" si="3"/>
         <v>2019-03</v>
       </c>
-      <c r="K40" s="4">
-        <v>0</v>
-      </c>
-      <c r="L40" s="4">
-        <v>5000</v>
-      </c>
-      <c r="M40" s="4">
-        <v>4003</v>
-      </c>
-      <c r="N40" s="4">
-        <v>0</v>
-      </c>
-      <c r="O40" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="9">
+      <c r="K45" s="4">
+        <v>0</v>
+      </c>
+      <c r="L45" s="4">
+        <v>5000</v>
+      </c>
+      <c r="M45" s="4">
+        <v>4003</v>
+      </c>
+      <c r="N45" s="4">
+        <v>0</v>
+      </c>
+      <c r="O45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="9">
         <v>43579</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="8" t="str">
+      <c r="B46" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="8" t="str">
         <f t="shared" si="2"/>
         <v>2019-04-24</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E46" s="4">
         <v>17540</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F46" s="4">
         <v>654.61</v>
       </c>
-      <c r="G41" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H41" t="s">
-        <v>49</v>
-      </c>
-      <c r="I41" t="s">
-        <v>50</v>
-      </c>
-      <c r="J41" t="str">
+      <c r="G46" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H46" t="s">
+        <v>49</v>
+      </c>
+      <c r="I46" t="s">
+        <v>50</v>
+      </c>
+      <c r="J46" t="str">
         <f t="shared" si="3"/>
         <v>2019-04</v>
       </c>
-      <c r="K41" s="4">
-        <v>0</v>
-      </c>
-      <c r="L41" s="4">
-        <v>5000</v>
-      </c>
-      <c r="M41" s="4">
-        <v>4003</v>
-      </c>
-      <c r="N41" s="4">
-        <v>0</v>
-      </c>
-      <c r="O41" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="9">
+      <c r="K46" s="4">
+        <v>0</v>
+      </c>
+      <c r="L46" s="4">
+        <v>5000</v>
+      </c>
+      <c r="M46" s="4">
+        <v>4003</v>
+      </c>
+      <c r="N46" s="4">
+        <v>0</v>
+      </c>
+      <c r="O46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="9">
         <v>43609</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" s="8" t="str">
+      <c r="B47" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="8" t="str">
         <f t="shared" si="2"/>
         <v>2019-05-24</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E47" s="4">
         <v>18230</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F47" s="4">
         <v>708.29</v>
       </c>
-      <c r="G42" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H42" t="s">
-        <v>49</v>
-      </c>
-      <c r="I42" t="s">
-        <v>50</v>
-      </c>
-      <c r="J42" t="str">
+      <c r="G47" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H47" t="s">
+        <v>49</v>
+      </c>
+      <c r="I47" t="s">
+        <v>50</v>
+      </c>
+      <c r="J47" t="str">
         <f t="shared" si="3"/>
         <v>2019-05</v>
       </c>
-      <c r="K42" s="4">
-        <v>0</v>
-      </c>
-      <c r="L42" s="4">
-        <v>5000</v>
-      </c>
-      <c r="M42" s="4">
-        <v>4003</v>
-      </c>
-      <c r="N42" s="4">
-        <v>0</v>
-      </c>
-      <c r="O42" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="9">
+      <c r="K47" s="4">
+        <v>0</v>
+      </c>
+      <c r="L47" s="4">
+        <v>5000</v>
+      </c>
+      <c r="M47" s="4">
+        <v>4003</v>
+      </c>
+      <c r="N47" s="4">
+        <v>0</v>
+      </c>
+      <c r="O47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="9">
         <v>43640</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="8" t="str">
+      <c r="B48" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="8" t="str">
         <f t="shared" si="2"/>
         <v>2019-06-24</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E48" s="4">
         <v>17580</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F48" s="4">
         <v>657.22</v>
       </c>
-      <c r="G43" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H43" t="s">
-        <v>49</v>
-      </c>
-      <c r="I43" t="s">
-        <v>50</v>
-      </c>
-      <c r="J43" t="str">
+      <c r="G48" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48" t="s">
+        <v>49</v>
+      </c>
+      <c r="I48" t="s">
+        <v>50</v>
+      </c>
+      <c r="J48" t="str">
         <f t="shared" si="3"/>
         <v>2019-06</v>
       </c>
-      <c r="K43" s="4">
-        <v>0</v>
-      </c>
-      <c r="L43" s="4">
-        <v>5000</v>
-      </c>
-      <c r="M43" s="4">
-        <v>4003</v>
-      </c>
-      <c r="N43" s="4">
-        <v>0</v>
-      </c>
-      <c r="O43" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="9">
+      <c r="K48" s="4">
+        <v>0</v>
+      </c>
+      <c r="L48" s="4">
+        <v>5000</v>
+      </c>
+      <c r="M48" s="4">
+        <v>4003</v>
+      </c>
+      <c r="N48" s="4">
+        <v>0</v>
+      </c>
+      <c r="O48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="9">
         <v>43670</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="8" t="str">
+      <c r="B49" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="8" t="str">
         <f t="shared" si="2"/>
         <v>2019-07-24</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E49" s="4">
         <v>17190</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F49" s="4">
         <v>627.38</v>
       </c>
-      <c r="G44" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H44" t="s">
-        <v>49</v>
-      </c>
-      <c r="I44" t="s">
-        <v>50</v>
-      </c>
-      <c r="J44" t="str">
+      <c r="G49" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H49" t="s">
+        <v>49</v>
+      </c>
+      <c r="I49" t="s">
+        <v>50</v>
+      </c>
+      <c r="J49" t="str">
         <f t="shared" si="3"/>
         <v>2019-07</v>
       </c>
-      <c r="K44" s="4">
-        <v>0</v>
-      </c>
-      <c r="L44" s="4">
-        <v>5000</v>
-      </c>
-      <c r="M44" s="4">
-        <v>4003</v>
-      </c>
-      <c r="N44" s="4">
-        <v>0</v>
-      </c>
-      <c r="O44" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="9">
+      <c r="K49" s="4">
+        <v>0</v>
+      </c>
+      <c r="L49" s="4">
+        <v>5000</v>
+      </c>
+      <c r="M49" s="4">
+        <v>4003</v>
+      </c>
+      <c r="N49" s="4">
+        <v>0</v>
+      </c>
+      <c r="O49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="9">
         <v>43701</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="8" t="str">
+      <c r="B50" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="8" t="str">
         <f t="shared" si="2"/>
         <v>2019-08-24</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E50" s="4">
         <v>17633</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F50" s="4">
         <v>661.85</v>
       </c>
-      <c r="G45" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H45" t="s">
-        <v>49</v>
-      </c>
-      <c r="I45" t="s">
-        <v>50</v>
-      </c>
-      <c r="J45" t="str">
+      <c r="G50" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H50" t="s">
+        <v>49</v>
+      </c>
+      <c r="I50" t="s">
+        <v>50</v>
+      </c>
+      <c r="J50" t="str">
         <f t="shared" si="3"/>
         <v>2019-08</v>
       </c>
-      <c r="K45" s="4">
-        <v>0</v>
-      </c>
-      <c r="L45" s="4">
-        <v>5000</v>
-      </c>
-      <c r="M45" s="4">
-        <v>4003</v>
-      </c>
-      <c r="N45" s="4">
-        <v>0</v>
-      </c>
-      <c r="O45" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="9">
+      <c r="K50" s="4">
+        <v>0</v>
+      </c>
+      <c r="L50" s="4">
+        <v>5000</v>
+      </c>
+      <c r="M50" s="4">
+        <v>4003</v>
+      </c>
+      <c r="N50" s="4">
+        <v>0</v>
+      </c>
+      <c r="O50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="9">
         <v>43732</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="8" t="str">
+      <c r="B51" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="8" t="str">
         <f t="shared" si="2"/>
         <v>2019-09-24</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E51" s="4">
         <v>17570</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F51" s="4">
         <v>656.95</v>
       </c>
-      <c r="G46" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H46" t="s">
-        <v>49</v>
-      </c>
-      <c r="I46" t="s">
-        <v>50</v>
-      </c>
-      <c r="J46" t="str">
+      <c r="G51" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H51" t="s">
+        <v>49</v>
+      </c>
+      <c r="I51" t="s">
+        <v>50</v>
+      </c>
+      <c r="J51" t="str">
         <f t="shared" si="3"/>
         <v>2019-09</v>
       </c>
-      <c r="K46" s="4">
-        <v>0</v>
-      </c>
-      <c r="L46" s="4">
-        <v>5000</v>
-      </c>
-      <c r="M46" s="4">
-        <v>4003</v>
-      </c>
-      <c r="N46" s="4">
-        <v>0</v>
-      </c>
-      <c r="O46" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="9">
+      <c r="K51" s="4">
+        <v>0</v>
+      </c>
+      <c r="L51" s="4">
+        <v>5000</v>
+      </c>
+      <c r="M51" s="4">
+        <v>4003</v>
+      </c>
+      <c r="N51" s="4">
+        <v>0</v>
+      </c>
+      <c r="O51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="9">
         <v>43762</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="8" t="str">
+      <c r="B52" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="8" t="str">
         <f t="shared" si="2"/>
         <v>2019-10-24</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E52" s="4">
         <v>18140</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F52" s="4">
         <v>701.29</v>
       </c>
-      <c r="G47" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H47" t="s">
-        <v>49</v>
-      </c>
-      <c r="I47" t="s">
-        <v>50</v>
-      </c>
-      <c r="J47" t="str">
+      <c r="G52" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H52" t="s">
+        <v>49</v>
+      </c>
+      <c r="I52" t="s">
+        <v>50</v>
+      </c>
+      <c r="J52" t="str">
         <f t="shared" si="3"/>
         <v>2019-10</v>
       </c>
-      <c r="K47" s="4">
-        <v>0</v>
-      </c>
-      <c r="L47" s="4">
-        <v>5000</v>
-      </c>
-      <c r="M47" s="4">
-        <v>4003</v>
-      </c>
-      <c r="N47" s="4">
-        <v>0</v>
-      </c>
-      <c r="O47" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="9">
+      <c r="K52" s="4">
+        <v>0</v>
+      </c>
+      <c r="L52" s="4">
+        <v>5000</v>
+      </c>
+      <c r="M52" s="4">
+        <v>4003</v>
+      </c>
+      <c r="N52" s="4">
+        <v>0</v>
+      </c>
+      <c r="O52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="9">
         <v>43793</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" s="8" t="str">
+      <c r="B53" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="8" t="str">
         <f t="shared" si="2"/>
         <v>2019-11-24</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E53" s="4">
         <v>17940</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F53" s="4">
         <v>685.73</v>
       </c>
-      <c r="G48" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H48" t="s">
-        <v>49</v>
-      </c>
-      <c r="I48" t="s">
-        <v>50</v>
-      </c>
-      <c r="J48" t="str">
+      <c r="G53" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H53" t="s">
+        <v>49</v>
+      </c>
+      <c r="I53" t="s">
+        <v>50</v>
+      </c>
+      <c r="J53" t="str">
         <f t="shared" si="3"/>
         <v>2019-11</v>
       </c>
-      <c r="K48" s="4">
-        <v>0</v>
-      </c>
-      <c r="L48" s="4">
-        <v>5000</v>
-      </c>
-      <c r="M48" s="4">
-        <v>4003</v>
-      </c>
-      <c r="N48" s="4">
-        <v>0</v>
-      </c>
-      <c r="O48" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
-      <c r="A49" s="9">
+      <c r="K53" s="4">
+        <v>0</v>
+      </c>
+      <c r="L53" s="4">
+        <v>5000</v>
+      </c>
+      <c r="M53" s="4">
+        <v>4003</v>
+      </c>
+      <c r="N53" s="4">
+        <v>0</v>
+      </c>
+      <c r="O53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="9">
         <v>43823</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" t="s">
-        <v>29</v>
-      </c>
-      <c r="D49" s="8" t="str">
+      <c r="B54" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" s="8" t="str">
         <f t="shared" si="2"/>
         <v>2019-12-24</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E54" s="4">
         <v>17445</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F54" s="4">
         <v>647.22</v>
       </c>
-      <c r="G49" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H49" t="s">
-        <v>49</v>
-      </c>
-      <c r="I49" t="s">
-        <v>50</v>
-      </c>
-      <c r="J49" t="str">
+      <c r="G54" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H54" t="s">
+        <v>49</v>
+      </c>
+      <c r="I54" t="s">
+        <v>50</v>
+      </c>
+      <c r="J54" t="str">
         <f t="shared" si="3"/>
         <v>2019-12</v>
       </c>
-      <c r="K49" s="4">
-        <v>0</v>
-      </c>
-      <c r="L49" s="4">
-        <v>5000</v>
-      </c>
-      <c r="M49" s="4">
-        <v>4003</v>
-      </c>
-      <c r="N49" s="4">
-        <v>0</v>
-      </c>
-      <c r="O49" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="9"/>
-      <c r="B50" s="12"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="O50" s="4"/>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="O51" s="4"/>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="A52" s="9"/>
-      <c r="B52" s="10"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="O52" s="4"/>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="A53" s="9"/>
-      <c r="B53" s="10"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="O53" s="4"/>
-    </row>
-    <row r="54" spans="1:15">
-      <c r="A54" s="9"/>
-      <c r="B54" s="13"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="O54" s="4"/>
+      <c r="K54" s="4">
+        <v>0</v>
+      </c>
+      <c r="L54" s="4">
+        <v>5000</v>
+      </c>
+      <c r="M54" s="4">
+        <v>4003</v>
+      </c>
+      <c r="N54" s="4">
+        <v>0</v>
+      </c>
+      <c r="O54" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:15">
-      <c r="B55" s="14"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="12"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="O55" s="4"/>
     </row>
     <row r="56" spans="1:15">
-      <c r="B56" s="14"/>
+      <c r="B56" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/__encodeapk/个税样板.xlsx
+++ b/__encodeapk/个税样板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangweixin/Documents/TS_ZFB/git/geshui/Finance-master-local/__encodeapk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EAD6FA-90B3-2A4F-835F-0055B78382C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0024A8C8-F07D-7B4A-9EA4-DA1350838F3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5020" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="伟强" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="62">
   <si>
     <t>姓名</t>
   </si>
@@ -96,9 +96,6 @@
     <t>513028196906293740</t>
   </si>
   <si>
-    <t>四川省平昌县白衣镇大河嘴街道二组74号</t>
-  </si>
-  <si>
     <t>143232197602234000</t>
   </si>
   <si>
@@ -184,10 +181,6 @@
   </si>
   <si>
     <t>全年一次性奖金收入</t>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>121100004007442000</t>
@@ -195,6 +188,36 @@
   </si>
   <si>
     <t>2021</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大河嘴街道二组74号</t>
+  </si>
+  <si>
+    <t>西翠路紫金长安小区8号楼3单元301室</t>
+  </si>
+  <si>
+    <t>大学本科</t>
+  </si>
+  <si>
+    <t>汉族</t>
+  </si>
+  <si>
+    <t>19993589789@qq.com</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>四川省 巴中市 平昌县 白衣镇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市 海淀区 海淀区万寿路街道</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>西翠路紫金长安小区8号楼3单元301室</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -207,7 +230,7 @@
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -244,6 +267,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -274,12 +306,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -334,9 +369,16 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -611,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -625,7 +667,7 @@
     <col min="7" max="7" width="41.6640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="32.83203125" customWidth="1"/>
     <col min="10" max="10" width="14.33203125" customWidth="1"/>
-    <col min="11" max="11" width="20.1640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="33.6640625" style="4" customWidth="1"/>
     <col min="12" max="12" width="15.5" style="4" customWidth="1"/>
     <col min="13" max="13" width="18" style="4" customWidth="1"/>
     <col min="14" max="14" width="18.1640625" style="4" customWidth="1"/>
@@ -703,51 +745,67 @@
       <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="3">
-        <v>1.21100004007442E+17</v>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F2"/>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>52</v>
+      <c r="R2" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
       </c>
       <c r="F4"/>
       <c r="I4"/>
       <c r="L4"/>
       <c r="M4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5"/>
       <c r="H5"/>
@@ -755,10 +813,10 @@
     </row>
     <row r="6" spans="1:18" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" s="3"/>
       <c r="E6" s="3"/>
@@ -767,7 +825,7 @@
     </row>
     <row r="7" spans="1:18" s="1" customFormat="1">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="6"/>
       <c r="E7" s="6"/>
@@ -776,7 +834,7 @@
     </row>
     <row r="8" spans="1:18" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="7">
         <v>43466</v>
@@ -794,7 +852,7 @@
     </row>
     <row r="9" spans="1:18" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -807,57 +865,57 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
         <v>36</v>
       </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" t="s">
         <v>39</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>40</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>41</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="M19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="N19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="O19" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -867,54 +925,54 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" t="s">
         <v>35</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
         <v>36</v>
       </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>37</v>
-      </c>
-      <c r="F24" t="s">
-        <v>38</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" t="s">
         <v>39</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>40</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>41</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="M24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="N24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="O24" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1">
         <v>2020</v>
@@ -925,10 +983,10 @@
         <v>43854</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" s="8" t="str">
         <f>TEXT(A26,"yyyy-mm-dd")</f>
@@ -941,13 +999,13 @@
         <v>654.85</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J26" t="str">
         <f>TEXT(A26,"yyyy-mm")</f>
@@ -974,10 +1032,10 @@
         <v>43881</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" s="8" t="str">
         <f>TEXT(A27,"yyyy-mm-dd")</f>
@@ -990,13 +1048,13 @@
         <v>1650.2</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J27" t="str">
         <f>TEXT(A27,"yyyy-mm")</f>
@@ -1023,10 +1081,10 @@
         <v>43885</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28" s="8" t="str">
         <f t="shared" ref="D28:D35" si="0">TEXT(A28,"yyyy-mm-dd")</f>
@@ -1039,13 +1097,13 @@
         <v>693.43</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" ref="J28:J35" si="1">TEXT(A28,"yyyy-mm")</f>
@@ -1072,10 +1130,10 @@
         <v>43914</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1088,13 +1146,13 @@
         <v>660.99</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="1"/>
@@ -1121,10 +1179,10 @@
         <v>43945</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1137,13 +1195,13 @@
         <v>679.35</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" si="1"/>
@@ -1170,10 +1228,10 @@
         <v>43975</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1186,13 +1244,13 @@
         <v>646.67999999999995</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" si="1"/>
@@ -1219,10 +1277,10 @@
         <v>44006</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1235,13 +1293,13 @@
         <v>657.18</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" si="1"/>
@@ -1268,10 +1326,10 @@
         <v>44036</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1284,13 +1342,13 @@
         <v>722.61</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" si="1"/>
@@ -1317,10 +1375,10 @@
         <v>44067</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D34" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1333,13 +1391,13 @@
         <v>650.1</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" si="1"/>
@@ -1366,10 +1424,10 @@
         <v>44098</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D35" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1382,13 +1440,13 @@
         <v>649.63</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" si="1"/>
@@ -1415,10 +1473,10 @@
         <v>44128</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D36" s="8" t="str">
         <f>TEXT(A36,"yyyy-mm-dd")</f>
@@ -1431,13 +1489,13 @@
         <v>642.16</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J36" t="str">
         <f>TEXT(A36,"yyyy-mm")</f>
@@ -1464,10 +1522,10 @@
         <v>44159</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37" s="8" t="str">
         <f>TEXT(A37,"yyyy-mm-dd")</f>
@@ -1480,13 +1538,13 @@
         <v>680.44</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J37" t="str">
         <f>TEXT(A37,"yyyy-mm")</f>
@@ -1513,10 +1571,10 @@
         <v>44189</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38" s="8" t="str">
         <f>TEXT(A38,"yyyy-mm-dd")</f>
@@ -1529,13 +1587,13 @@
         <v>684.72</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J38" t="str">
         <f>TEXT(A38,"yyyy-mm")</f>
@@ -1568,7 +1626,7 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41">
         <v>2019</v>
@@ -1581,10 +1639,10 @@
         <v>43489</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D42" s="8" t="str">
         <f>TEXT(A42,"yyyy-mm-dd")</f>
@@ -1597,13 +1655,13 @@
         <v>646.83000000000004</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J42" t="str">
         <f>TEXT(A42,"yyyy-mm")</f>
@@ -1630,10 +1688,10 @@
         <v>43516</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D43" s="8" t="str">
         <f>TEXT(A43,"yyyy-mm-dd")</f>
@@ -1646,13 +1704,13 @@
         <v>1313.2</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J43" t="str">
         <f>TEXT(A43,"yyyy-mm")</f>
@@ -1679,10 +1737,10 @@
         <v>43520</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D44" s="8" t="str">
         <f t="shared" ref="D44:D54" si="2">TEXT(A44,"yyyy-mm-dd")</f>
@@ -1695,13 +1753,13 @@
         <v>649.94000000000005</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J44" t="str">
         <f t="shared" ref="J44:J54" si="3">TEXT(A44,"yyyy-mm")</f>
@@ -1728,10 +1786,10 @@
         <v>43548</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D45" s="8" t="str">
         <f t="shared" si="2"/>
@@ -1744,13 +1802,13 @@
         <v>638.12</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J45" t="str">
         <f t="shared" si="3"/>
@@ -1777,10 +1835,10 @@
         <v>43579</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D46" s="8" t="str">
         <f t="shared" si="2"/>
@@ -1793,13 +1851,13 @@
         <v>654.61</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J46" t="str">
         <f t="shared" si="3"/>
@@ -1826,10 +1884,10 @@
         <v>43609</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D47" s="8" t="str">
         <f t="shared" si="2"/>
@@ -1842,13 +1900,13 @@
         <v>708.29</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J47" t="str">
         <f t="shared" si="3"/>
@@ -1875,10 +1933,10 @@
         <v>43640</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D48" s="8" t="str">
         <f t="shared" si="2"/>
@@ -1891,13 +1949,13 @@
         <v>657.22</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J48" t="str">
         <f t="shared" si="3"/>
@@ -1924,10 +1982,10 @@
         <v>43670</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D49" s="8" t="str">
         <f t="shared" si="2"/>
@@ -1940,13 +1998,13 @@
         <v>627.38</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J49" t="str">
         <f t="shared" si="3"/>
@@ -1973,10 +2031,10 @@
         <v>43701</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D50" s="8" t="str">
         <f t="shared" si="2"/>
@@ -1989,13 +2047,13 @@
         <v>661.85</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J50" t="str">
         <f t="shared" si="3"/>
@@ -2022,10 +2080,10 @@
         <v>43732</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D51" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2038,13 +2096,13 @@
         <v>656.95</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J51" t="str">
         <f t="shared" si="3"/>
@@ -2071,10 +2129,10 @@
         <v>43762</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D52" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2087,13 +2145,13 @@
         <v>701.29</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J52" t="str">
         <f t="shared" si="3"/>
@@ -2120,10 +2178,10 @@
         <v>43793</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D53" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2136,13 +2194,13 @@
         <v>685.73</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J53" t="str">
         <f t="shared" si="3"/>
@@ -2169,10 +2227,10 @@
         <v>43823</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D54" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2185,13 +2243,13 @@
         <v>647.22</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J54" t="str">
         <f t="shared" si="3"/>
@@ -2226,6 +2284,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{8882CA2D-A6F9-9F46-B112-D0C5C583B962}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/__encodeapk/个税样板.xlsx
+++ b/__encodeapk/个税样板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangweixin/Documents/TS_ZFB/git/geshui/Finance-master-local/__encodeapk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0024A8C8-F07D-7B4A-9EA4-DA1350838F3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2D575F-314F-BB44-B0A9-9DD5DBCB13CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2780" yWindow="1780" windowWidth="17180" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="伟强" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="62">
   <si>
     <t>姓名</t>
   </si>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -918,6 +918,55 @@
         <v>52</v>
       </c>
     </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="9">
+        <v>44220</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="8" t="str">
+        <f>TEXT(A21,"yyyy-mm-dd")</f>
+        <v>2021-01-24</v>
+      </c>
+      <c r="E21" s="4">
+        <v>17543</v>
+      </c>
+      <c r="F21" s="4">
+        <v>654.85</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" t="str">
+        <f>TEXT(A21,"yyyy-mm")</f>
+        <v>2021-01</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
+        <v>5000</v>
+      </c>
+      <c r="M21" s="4">
+        <v>4003</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+    </row>
     <row r="23" spans="1:15">
       <c r="G23" s="3">
         <v>1.21100004007442E+17</v>
